--- a/runs/run725/NotionalETEOutput725.xlsx
+++ b/runs/run725/NotionalETEOutput725.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_126.MISSILE_BRAVER0_126</t>
+    <t>MISSILE_HIGHWIND1_146.MISSILE_HIGHWIND1_146</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1466.466223504813</v>
+        <v>-1459.951726546917</v>
       </c>
       <c r="J2">
-        <v>1965.712274221047</v>
+        <v>1933.280902990203</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1405.999067367371</v>
+        <v>-1464.712437877401</v>
       </c>
       <c r="J3">
-        <v>1913.234014960242</v>
+        <v>1964.19358404491</v>
       </c>
       <c r="K3">
-        <v>302.1370000205956</v>
+        <v>307.005661138364</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1376.763520633189</v>
+        <v>-1414.282612179622</v>
       </c>
       <c r="J4">
-        <v>1912.293535945375</v>
+        <v>1843.134328699834</v>
       </c>
       <c r="K4">
-        <v>578.2441574493154</v>
+        <v>568.5841312700339</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1398.129134191091</v>
+        <v>-1362.053139864634</v>
       </c>
       <c r="J5">
-        <v>1936.918769680196</v>
+        <v>1907.949273024486</v>
       </c>
       <c r="K5">
-        <v>836.0982613891649</v>
+        <v>849.1090322836632</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1315.550822030383</v>
+        <v>-1407.402319635095</v>
       </c>
       <c r="J6">
-        <v>1772.22568111911</v>
+        <v>1821.160437613996</v>
       </c>
       <c r="K6">
-        <v>1078.930922028688</v>
+        <v>1126.255745651424</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1385.065832152304</v>
+        <v>-1402.264653046298</v>
       </c>
       <c r="J7">
-        <v>1789.301207196036</v>
+        <v>1822.157654006854</v>
       </c>
       <c r="K7">
-        <v>1399.074736267913</v>
+        <v>1325.011230471938</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1370.66374994504</v>
+        <v>-1275.481491501966</v>
       </c>
       <c r="J8">
-        <v>1740.307427797364</v>
+        <v>1624.494495881508</v>
       </c>
       <c r="K8">
-        <v>1647.38594322696</v>
+        <v>1522.474627993839</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.43022516253983</v>
+        <v>-104.4341488579905</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1263.432479475398</v>
+        <v>-1249.342487853372</v>
       </c>
       <c r="J9">
-        <v>1741.962290226319</v>
+        <v>1678.608504878526</v>
       </c>
       <c r="K9">
-        <v>1755.436250457343</v>
+        <v>1893.867168022329</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.9877985065677</v>
+        <v>222.1062751258141</v>
       </c>
       <c r="G10">
-        <v>-86.31832817571562</v>
+        <v>-79.42326906702517</v>
       </c>
       <c r="H10">
-        <v>823.7313033424037</v>
+        <v>840.2546068247837</v>
       </c>
       <c r="I10">
-        <v>-1247.26568325168</v>
+        <v>-1232.69848159595</v>
       </c>
       <c r="J10">
-        <v>1680.883645463556</v>
+        <v>1674.027706764555</v>
       </c>
       <c r="K10">
-        <v>1988.14474245243</v>
+        <v>1993.271267756038</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.0229404976821</v>
+        <v>165.7217071963683</v>
       </c>
       <c r="G11">
-        <v>-68.69841407623777</v>
+        <v>-65.5876543604345</v>
       </c>
       <c r="H11">
-        <v>1071.586406575844</v>
+        <v>1101.492165231728</v>
       </c>
       <c r="I11">
-        <v>-1207.331500486816</v>
+        <v>-1180.22778695416</v>
       </c>
       <c r="J11">
-        <v>1534.782978558002</v>
+        <v>1613.973997075461</v>
       </c>
       <c r="K11">
-        <v>2192.92155219016</v>
+        <v>2190.501176716417</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>135.2495261414982</v>
+        <v>135.6339919524667</v>
       </c>
       <c r="G12">
-        <v>-48.499893417379</v>
+        <v>-48.98237049733118</v>
       </c>
       <c r="H12">
-        <v>1121.864348848416</v>
+        <v>1212.707339152526</v>
       </c>
       <c r="I12">
-        <v>-1179.257292302021</v>
+        <v>-1224.548500233934</v>
       </c>
       <c r="J12">
-        <v>1586.777768994294</v>
+        <v>1437.958371163156</v>
       </c>
       <c r="K12">
-        <v>2300.650937852004</v>
+        <v>2411.353302795945</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>126.8108768464607</v>
+        <v>116.6385192617935</v>
       </c>
       <c r="G13">
-        <v>-35.47038536255209</v>
+        <v>-33.80533897603721</v>
       </c>
       <c r="H13">
-        <v>1292.94091468656</v>
+        <v>1265.031450344179</v>
       </c>
       <c r="I13">
-        <v>-1078.178669563747</v>
+        <v>-1185.558125023776</v>
       </c>
       <c r="J13">
-        <v>1530.652932601025</v>
+        <v>1529.472241447368</v>
       </c>
       <c r="K13">
-        <v>2448.180432732592</v>
+        <v>2493.437987002096</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.2799850047735</v>
+        <v>106.6148387767166</v>
       </c>
       <c r="G14">
-        <v>-17.681182968666</v>
+        <v>-17.14028407243021</v>
       </c>
       <c r="H14">
-        <v>1284.578096196561</v>
+        <v>1309.276129594343</v>
       </c>
       <c r="I14">
-        <v>-1091.041126709048</v>
+        <v>-1061.054174936497</v>
       </c>
       <c r="J14">
-        <v>1371.431458287652</v>
+        <v>1361.373937007957</v>
       </c>
       <c r="K14">
-        <v>2703.533896294147</v>
+        <v>2572.736271696801</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>100.3568971606729</v>
+        <v>98.83711859415949</v>
       </c>
       <c r="G15">
-        <v>-0.8930304347238299</v>
+        <v>-0.9170365653685005</v>
       </c>
       <c r="H15">
-        <v>1427.994303303179</v>
+        <v>1368.727307631937</v>
       </c>
       <c r="I15">
-        <v>-1026.358462240975</v>
+        <v>-1024.039500704003</v>
       </c>
       <c r="J15">
-        <v>1318.351548203123</v>
+        <v>1350.817297072176</v>
       </c>
       <c r="K15">
-        <v>2737.382601377469</v>
+        <v>2789.676084151932</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>96.44744548351542</v>
+        <v>89.45131547235677</v>
       </c>
       <c r="G16">
-        <v>15.94946212142779</v>
+        <v>15.99794381080792</v>
       </c>
       <c r="H16">
-        <v>1443.978605577292</v>
+        <v>1432.629194053578</v>
       </c>
       <c r="I16">
-        <v>-983.7105455550563</v>
+        <v>-1004.577274514805</v>
       </c>
       <c r="J16">
-        <v>1344.554806037076</v>
+        <v>1369.674761928081</v>
       </c>
       <c r="K16">
-        <v>2998.157580046926</v>
+        <v>2852.921110278973</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>90.04799785453321</v>
+        <v>89.31779638734744</v>
       </c>
       <c r="G17">
-        <v>31.77459551409952</v>
+        <v>30.99704488528667</v>
       </c>
       <c r="H17">
-        <v>1509.013846159245</v>
+        <v>1398.925689724712</v>
       </c>
       <c r="I17">
-        <v>-946.139568742719</v>
+        <v>-930.7100470818401</v>
       </c>
       <c r="J17">
-        <v>1232.303178685019</v>
+        <v>1215.284754014253</v>
       </c>
       <c r="K17">
-        <v>3049.702769798071</v>
+        <v>2852.072109737704</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.78896371558871</v>
+        <v>85.04623408945346</v>
       </c>
       <c r="G18">
-        <v>50.41978869861659</v>
+        <v>46.32227235815048</v>
       </c>
       <c r="H18">
-        <v>1555.337159753831</v>
+        <v>1518.16449867051</v>
       </c>
       <c r="I18">
-        <v>-933.0963515987929</v>
+        <v>-892.983589696792</v>
       </c>
       <c r="J18">
-        <v>1178.426390552323</v>
+        <v>1265.245210521168</v>
       </c>
       <c r="K18">
-        <v>2897.139902586431</v>
+        <v>2938.747289575292</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.6313089511286</v>
+        <v>79.56397362525782</v>
       </c>
       <c r="G19">
-        <v>65.61771771924154</v>
+        <v>68.28367992933214</v>
       </c>
       <c r="H19">
-        <v>1591.099159105364</v>
+        <v>1537.853337029614</v>
       </c>
       <c r="I19">
-        <v>-888.7325062621916</v>
+        <v>-858.3399945030048</v>
       </c>
       <c r="J19">
-        <v>1170.652377553399</v>
+        <v>1213.636652461019</v>
       </c>
       <c r="K19">
-        <v>3162.521194971462</v>
+        <v>2951.168855488342</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.86913945284063</v>
+        <v>76.59331147882014</v>
       </c>
       <c r="G20">
-        <v>79.52262987104071</v>
+        <v>84.59775399896533</v>
       </c>
       <c r="H20">
-        <v>1610.442047806991</v>
+        <v>1528.198125963883</v>
       </c>
       <c r="I20">
-        <v>-811.3537885682646</v>
+        <v>-853.8286376469858</v>
       </c>
       <c r="J20">
-        <v>1153.28689644681</v>
+        <v>1156.216264003748</v>
       </c>
       <c r="K20">
-        <v>3157.049514009433</v>
+        <v>3229.581162473859</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.30385122851861</v>
+        <v>73.87797782676678</v>
       </c>
       <c r="G21">
-        <v>101.7617545875137</v>
+        <v>102.529923140733</v>
       </c>
       <c r="H21">
-        <v>1584.475022518069</v>
+        <v>1543.97307922513</v>
       </c>
       <c r="I21">
-        <v>-811.9202334455383</v>
+        <v>-819.9772874788582</v>
       </c>
       <c r="J21">
-        <v>1063.692928697479</v>
+        <v>1044.682909488507</v>
       </c>
       <c r="K21">
-        <v>3058.05488284816</v>
+        <v>3240.066461703854</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.26109387096042</v>
+        <v>70.48738723592049</v>
       </c>
       <c r="G22">
-        <v>114.797944001075</v>
+        <v>114.3424592033386</v>
       </c>
       <c r="H22">
-        <v>1580.224629742081</v>
+        <v>1642.427660655838</v>
       </c>
       <c r="I22">
-        <v>-754.0032626172467</v>
+        <v>-742.7681805856092</v>
       </c>
       <c r="J22">
-        <v>1019.833734442167</v>
+        <v>1030.181180444903</v>
       </c>
       <c r="K22">
-        <v>3202.679319591876</v>
+        <v>3045.270253827632</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.01107529088561</v>
+        <v>65.80574168151593</v>
       </c>
       <c r="G23">
-        <v>125.4897028513606</v>
+        <v>136.3955059609605</v>
       </c>
       <c r="H23">
-        <v>1626.495395006198</v>
+        <v>1614.250044854141</v>
       </c>
       <c r="I23">
-        <v>-719.9871251250511</v>
+        <v>-730.4051736557583</v>
       </c>
       <c r="J23">
-        <v>1000.213444091233</v>
+        <v>954.6297762768839</v>
       </c>
       <c r="K23">
-        <v>3125.659658040905</v>
+        <v>3330.171798078583</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>64.26197334746392</v>
+        <v>62.34033902836347</v>
       </c>
       <c r="G24">
-        <v>143.1652058160367</v>
+        <v>145.0374094835115</v>
       </c>
       <c r="H24">
-        <v>1708.243586926308</v>
+        <v>1696.308240854806</v>
       </c>
       <c r="I24">
-        <v>-669.0152823458935</v>
+        <v>-678.8100769365493</v>
       </c>
       <c r="J24">
-        <v>955.39212259315</v>
+        <v>958.9754802957581</v>
       </c>
       <c r="K24">
-        <v>3131.186075046417</v>
+        <v>3293.305586425512</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>59.373889748925</v>
+        <v>61.60919510964217</v>
       </c>
       <c r="G25">
-        <v>156.1962005428315</v>
+        <v>170.4583232769056</v>
       </c>
       <c r="H25">
-        <v>1730.954934145284</v>
+        <v>1664.385926057236</v>
       </c>
       <c r="I25">
-        <v>-598.8953805285796</v>
+        <v>-609.2898935399761</v>
       </c>
       <c r="J25">
-        <v>894.8100637251619</v>
+        <v>892.4754156756239</v>
       </c>
       <c r="K25">
-        <v>3241.205517945611</v>
+        <v>3254.479182807366</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.45334308957961</v>
+        <v>57.0489080842332</v>
       </c>
       <c r="G26">
-        <v>184.5338050390176</v>
+        <v>188.0049772084552</v>
       </c>
       <c r="H26">
-        <v>1661.018801267257</v>
+        <v>1657.899506774635</v>
       </c>
       <c r="I26">
-        <v>-529.4431018614459</v>
+        <v>-568.963989747988</v>
       </c>
       <c r="J26">
-        <v>873.4892383067732</v>
+        <v>790.850388196976</v>
       </c>
       <c r="K26">
-        <v>3052.321831407276</v>
+        <v>2957.181957323377</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.34840464013568</v>
+        <v>60.82064270976757</v>
       </c>
       <c r="G27">
-        <v>195.7399505763647</v>
+        <v>191.9354853562024</v>
       </c>
       <c r="H27">
-        <v>1680.716223016283</v>
+        <v>1625.415689596037</v>
       </c>
       <c r="I27">
-        <v>-484.5107914042773</v>
+        <v>-497.4003082063447</v>
       </c>
       <c r="J27">
-        <v>748.3413692460857</v>
+        <v>788.3888489779886</v>
       </c>
       <c r="K27">
-        <v>3052.436844773044</v>
+        <v>3158.357729161116</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>59.20763490915303</v>
+        <v>54.13278024152713</v>
       </c>
       <c r="G28">
-        <v>209.8757353748924</v>
+        <v>221.0939974598332</v>
       </c>
       <c r="H28">
-        <v>1652.841724869401</v>
+        <v>1757.998340104148</v>
       </c>
       <c r="I28">
-        <v>-447.4259085205697</v>
+        <v>-426.563917923354</v>
       </c>
       <c r="J28">
-        <v>713.7338276742131</v>
+        <v>767.38737819005</v>
       </c>
       <c r="K28">
-        <v>2991.69084333202</v>
+        <v>3072.073545652425</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.6241345859569</v>
+        <v>52.54569545841301</v>
       </c>
       <c r="G29">
-        <v>222.7622479105453</v>
+        <v>226.8539693177445</v>
       </c>
       <c r="H29">
-        <v>1805.104505902397</v>
+        <v>1787.004059027767</v>
       </c>
       <c r="I29">
-        <v>-369.9259869831121</v>
+        <v>-365.2962878889766</v>
       </c>
       <c r="J29">
-        <v>688.5353482530579</v>
+        <v>677.8370135055167</v>
       </c>
       <c r="K29">
-        <v>2937.968948778211</v>
+        <v>2972.575505175931</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.38268310087238</v>
+        <v>51.95804999636273</v>
       </c>
       <c r="G30">
-        <v>246.0862595270895</v>
+        <v>236.7814605713092</v>
       </c>
       <c r="H30">
-        <v>1698.772826614998</v>
+        <v>1781.477178732413</v>
       </c>
       <c r="I30">
-        <v>-332.3598315787695</v>
+        <v>-318.8060790618105</v>
       </c>
       <c r="J30">
-        <v>638.0047557355778</v>
+        <v>630.2090948790052</v>
       </c>
       <c r="K30">
-        <v>2669.728622965436</v>
+        <v>2837.640953829303</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.56539725520282</v>
+        <v>52.52041940453241</v>
       </c>
       <c r="G31">
-        <v>266.5746324329961</v>
+        <v>253.1372357687809</v>
       </c>
       <c r="H31">
-        <v>1799.132149219791</v>
+        <v>1683.629735492274</v>
       </c>
       <c r="I31">
-        <v>-275.8267197367778</v>
+        <v>-274.8299946942411</v>
       </c>
       <c r="J31">
-        <v>592.6746431491914</v>
+        <v>602.4167609129856</v>
       </c>
       <c r="K31">
-        <v>2651.598643519751</v>
+        <v>2756.108672021828</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.17220635427856</v>
+        <v>50.24406503382813</v>
       </c>
       <c r="G32">
-        <v>272.2110066820929</v>
+        <v>279.0672214789396</v>
       </c>
       <c r="H32">
-        <v>1708.99783099001</v>
+        <v>1710.496502752989</v>
       </c>
       <c r="I32">
-        <v>-208.8825404397156</v>
+        <v>-198.6199905373085</v>
       </c>
       <c r="J32">
-        <v>555.8737493989595</v>
+        <v>547.9372896120061</v>
       </c>
       <c r="K32">
-        <v>2592.040439165546</v>
+        <v>2445.54846443719</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.67884317494604</v>
+        <v>49.53040887773402</v>
       </c>
       <c r="G33">
-        <v>299.5546490521338</v>
+        <v>306.1863716165589</v>
       </c>
       <c r="H33">
-        <v>1851.031987822847</v>
+        <v>1709.218181851515</v>
       </c>
       <c r="I33">
-        <v>-142.1880255843847</v>
+        <v>-149.61194656026</v>
       </c>
       <c r="J33">
-        <v>507.3058677790087</v>
+        <v>476.1023991587205</v>
       </c>
       <c r="K33">
-        <v>2303.123743447166</v>
+        <v>2489.232765698896</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.19090388948396</v>
+        <v>48.47747669605522</v>
       </c>
       <c r="G34">
-        <v>303.1903075918934</v>
+        <v>305.6757703799733</v>
       </c>
       <c r="H34">
-        <v>1819.397648180908</v>
+        <v>1850.931583679274</v>
       </c>
       <c r="I34">
-        <v>-84.39687855206729</v>
+        <v>-83.36040952898372</v>
       </c>
       <c r="J34">
-        <v>446.6382800027021</v>
+        <v>461.1794127587066</v>
       </c>
       <c r="K34">
-        <v>2242.89620573903</v>
+        <v>2110.702276204349</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.23379705738978</v>
+        <v>48.98338004121036</v>
       </c>
       <c r="G35">
-        <v>324.455540999249</v>
+        <v>342.7194490363825</v>
       </c>
       <c r="H35">
-        <v>1792.097213364792</v>
+        <v>1768.732846691624</v>
       </c>
       <c r="I35">
-        <v>-18.31774236691622</v>
+        <v>-18.54894124696589</v>
       </c>
       <c r="J35">
-        <v>407.2621705415469</v>
+        <v>396.3003777083475</v>
       </c>
       <c r="K35">
-        <v>1999.960035600079</v>
+        <v>2080.578462405728</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.8210162369148</v>
+        <v>48.45894469914229</v>
       </c>
       <c r="G36">
-        <v>342.4058903840215</v>
+        <v>339.0983198649885</v>
       </c>
       <c r="H36">
-        <v>1761.274354661834</v>
+        <v>1888.214326187682</v>
       </c>
       <c r="I36">
-        <v>45.39340614273479</v>
+        <v>49.5048352700418</v>
       </c>
       <c r="J36">
-        <v>352.5366023351985</v>
+        <v>353.877367586987</v>
       </c>
       <c r="K36">
-        <v>1894.354877923154</v>
+        <v>1900.632273722547</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.13863541304336</v>
+        <v>47.67533395917769</v>
       </c>
       <c r="G37">
-        <v>360.213089180385</v>
+        <v>371.216517573709</v>
       </c>
       <c r="H37">
-        <v>1836.523199269666</v>
+        <v>1753.996001792911</v>
       </c>
       <c r="I37">
-        <v>114.7392168123845</v>
+        <v>110.0591403730507</v>
       </c>
       <c r="J37">
-        <v>295.8009477205673</v>
+        <v>303.2056854256985</v>
       </c>
       <c r="K37">
-        <v>1636.087574793238</v>
+        <v>1690.928375864012</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.58158558741184</v>
+        <v>46.62957428036349</v>
       </c>
       <c r="G38">
-        <v>386.6689102548191</v>
+        <v>365.245286540369</v>
       </c>
       <c r="H38">
-        <v>1775.56072820513</v>
+        <v>1816.795757954664</v>
       </c>
       <c r="I38">
-        <v>182.0587187970021</v>
+        <v>178.0067933314759</v>
       </c>
       <c r="J38">
-        <v>242.0249229109153</v>
+        <v>248.281762183696</v>
       </c>
       <c r="K38">
-        <v>1329.053746015025</v>
+        <v>1340.075903725122</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>47.11700783825576</v>
+        <v>43.97924598785359</v>
       </c>
       <c r="G39">
-        <v>412.0915703392479</v>
+        <v>377.3585358602177</v>
       </c>
       <c r="H39">
-        <v>1818.790605645015</v>
+        <v>1812.822323648598</v>
       </c>
       <c r="I39">
-        <v>254.6631145575001</v>
+        <v>256.3041334716249</v>
       </c>
       <c r="J39">
-        <v>208.5501594640049</v>
+        <v>201.2358701828072</v>
       </c>
       <c r="K39">
-        <v>1161.148106145693</v>
+        <v>1161.246921307199</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.74867616779237</v>
+        <v>44.77265792799254</v>
       </c>
       <c r="G40">
-        <v>396.4243097738835</v>
+        <v>395.425887623455</v>
       </c>
       <c r="H40">
-        <v>1849.010433289844</v>
+        <v>1822.467090279219</v>
       </c>
       <c r="I40">
-        <v>326.0407263698069</v>
+        <v>341.095844379063</v>
       </c>
       <c r="J40">
-        <v>155.4858878423679</v>
+        <v>148.8010505508492</v>
       </c>
       <c r="K40">
-        <v>923.6565166834966</v>
+        <v>902.0539762294787</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.22346464355751</v>
+        <v>41.81315832702225</v>
       </c>
       <c r="G41">
-        <v>433.3857470174721</v>
+        <v>444.8402293000699</v>
       </c>
       <c r="H41">
-        <v>1906.515705049755</v>
+        <v>1878.356136194706</v>
       </c>
       <c r="I41">
-        <v>398.0711950933743</v>
+        <v>414.3737038103854</v>
       </c>
       <c r="J41">
-        <v>105.282086801692</v>
+        <v>105.8884189695642</v>
       </c>
       <c r="K41">
-        <v>646.8053343135094</v>
+        <v>604.4799300913683</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.4496610690576</v>
+        <v>44.56897469220848</v>
       </c>
       <c r="G42">
-        <v>464.5527968792082</v>
+        <v>465.5498511181002</v>
       </c>
       <c r="H42">
-        <v>1921.002027191684</v>
+        <v>1838.726393627697</v>
       </c>
       <c r="I42">
-        <v>487.2982450631143</v>
+        <v>459.1810157818384</v>
       </c>
       <c r="J42">
-        <v>54.39898268337173</v>
+        <v>53.75221060987374</v>
       </c>
       <c r="K42">
-        <v>338.2224874065316</v>
+        <v>325.8877993375972</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.55678992983137</v>
+        <v>43.20612780687285</v>
       </c>
       <c r="G43">
-        <v>481.1602689998392</v>
+        <v>452.0555488901101</v>
       </c>
       <c r="H43">
-        <v>1850.289159193188</v>
+        <v>1836.895828939148</v>
       </c>
       <c r="I43">
-        <v>537.4852554790142</v>
+        <v>535.1952094875659</v>
       </c>
       <c r="J43">
-        <v>5.022048308971178</v>
+        <v>5.153966892288053</v>
       </c>
       <c r="K43">
-        <v>34.18206500725129</v>
+        <v>32.44605348874343</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.85534151673973</v>
+        <v>42.68666505871693</v>
       </c>
       <c r="G44">
-        <v>458.8518181658318</v>
+        <v>458.1685630384956</v>
       </c>
       <c r="H44">
-        <v>1926.992572138943</v>
+        <v>1975.179877731913</v>
       </c>
       <c r="I44">
-        <v>623.8486868707174</v>
+        <v>635.6115416733405</v>
       </c>
       <c r="J44">
-        <v>-42.50501768177332</v>
+        <v>-44.96455720524077</v>
       </c>
       <c r="K44">
-        <v>-292.0212788403452</v>
+        <v>-292.1258571643822</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.66505866426706</v>
+        <v>42.83245991513382</v>
       </c>
       <c r="G45">
-        <v>499.4068356461239</v>
+        <v>484.3896908134068</v>
       </c>
       <c r="H45">
-        <v>1974.52682864732</v>
+        <v>1925.879911489995</v>
       </c>
       <c r="I45">
-        <v>706.5319348226542</v>
+        <v>700.6351161575242</v>
       </c>
       <c r="J45">
-        <v>-93.77050101830331</v>
+        <v>-88.15036660306912</v>
       </c>
       <c r="K45">
-        <v>-616.3045439781873</v>
+        <v>-597.2332121829634</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>42.30258731444943</v>
+        <v>38.97039810533161</v>
       </c>
       <c r="G46">
-        <v>518.0773236087166</v>
+        <v>494.6052708540381</v>
       </c>
       <c r="H46">
-        <v>1874.779552842464</v>
+        <v>1949.970532564014</v>
       </c>
       <c r="I46">
-        <v>769.0266612679055</v>
+        <v>810.5336700055747</v>
       </c>
       <c r="J46">
-        <v>-145.2158655607439</v>
+        <v>-145.105411479117</v>
       </c>
       <c r="K46">
-        <v>-992.7809461294979</v>
+        <v>-984.4721912574126</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.24736271280305</v>
+        <v>40.43659134714649</v>
       </c>
       <c r="G47">
-        <v>544.988779155129</v>
+        <v>517.5187550311766</v>
       </c>
       <c r="H47">
-        <v>2022.632841850056</v>
+        <v>1882.201984969812</v>
       </c>
       <c r="I47">
-        <v>852.2605560016211</v>
+        <v>889.0401180997857</v>
       </c>
       <c r="J47">
-        <v>-193.6583922617702</v>
+        <v>-192.128928578794</v>
       </c>
       <c r="K47">
-        <v>-1362.647178577648</v>
+        <v>-1260.886530208283</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>41.14917425626739</v>
+        <v>40.85828311258455</v>
       </c>
       <c r="G48">
-        <v>547.9982460661271</v>
+        <v>554.1877999954949</v>
       </c>
       <c r="H48">
-        <v>1882.069186234044</v>
+        <v>1876.969976402858</v>
       </c>
       <c r="I48">
-        <v>1025.166043681992</v>
+        <v>1020.872618916913</v>
       </c>
       <c r="J48">
-        <v>-232.0927884910606</v>
+        <v>-231.4257102671948</v>
       </c>
       <c r="K48">
-        <v>-1728.817418794444</v>
+        <v>-1634.924037861941</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.88488480616321</v>
+        <v>40.34810516223511</v>
       </c>
       <c r="G49">
-        <v>565.2865857478297</v>
+        <v>576.4958003453961</v>
       </c>
       <c r="H49">
-        <v>1979.015659036017</v>
+        <v>1898.056429507595</v>
       </c>
       <c r="I49">
-        <v>1025.620514202802</v>
+        <v>1032.360341732762</v>
       </c>
       <c r="J49">
-        <v>-286.7312139620044</v>
+        <v>-295.5853595533051</v>
       </c>
       <c r="K49">
-        <v>-2027.001803693113</v>
+        <v>-2097.329541654246</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.09252449809821</v>
+        <v>39.55033844087569</v>
       </c>
       <c r="G50">
-        <v>552.6268119613214</v>
+        <v>573.5982522352343</v>
       </c>
       <c r="H50">
-        <v>1996.271734639898</v>
+        <v>2007.788280709548</v>
       </c>
       <c r="I50">
-        <v>1189.149576700419</v>
+        <v>1161.713020665431</v>
       </c>
       <c r="J50">
-        <v>-325.4343986890088</v>
+        <v>-351.7762085484342</v>
       </c>
       <c r="K50">
-        <v>-2431.716596353464</v>
+        <v>-2380.246639048142</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.69285507271129</v>
+        <v>38.84892011948062</v>
       </c>
       <c r="G51">
-        <v>578.3689693203871</v>
+        <v>591.4755283387434</v>
       </c>
       <c r="H51">
-        <v>2024.316547680057</v>
+        <v>1900.00260964734</v>
       </c>
       <c r="I51">
-        <v>1312.311401024519</v>
+        <v>1286.061744998514</v>
       </c>
       <c r="J51">
-        <v>-372.3844913125392</v>
+        <v>-398.2960355254002</v>
       </c>
       <c r="K51">
-        <v>-2926.140794083327</v>
+        <v>-2986.931269712648</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.49756049203761</v>
+        <v>36.81928928283774</v>
       </c>
       <c r="G52">
-        <v>584.3641642093536</v>
+        <v>598.4700101626165</v>
       </c>
       <c r="H52">
-        <v>2017.454642571653</v>
+        <v>1969.197775222045</v>
       </c>
       <c r="I52">
-        <v>1295.358053609386</v>
+        <v>1398.37093384482</v>
       </c>
       <c r="J52">
-        <v>-420.5643060601776</v>
+        <v>-412.6417526723388</v>
       </c>
       <c r="K52">
-        <v>-3439.32113115166</v>
+        <v>-3468.409004089712</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.79800345874094</v>
+        <v>36.13898049084978</v>
       </c>
       <c r="G53">
-        <v>635.1400306426692</v>
+        <v>638.6237105893309</v>
       </c>
       <c r="H53">
-        <v>1951.931799017335</v>
+        <v>1921.504881259391</v>
       </c>
       <c r="I53">
-        <v>1386.704373484559</v>
+        <v>1408.400942397883</v>
       </c>
       <c r="J53">
-        <v>-466.4675913698841</v>
+        <v>-468.145660666412</v>
       </c>
       <c r="K53">
-        <v>-3761.256501074541</v>
+        <v>-3707.103384304467</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.84840617237877</v>
+        <v>37.23455486282276</v>
       </c>
       <c r="G54">
-        <v>649.6867724568356</v>
+        <v>670.5938753868917</v>
       </c>
       <c r="H54">
-        <v>1943.819075744447</v>
+        <v>2026.793064946813</v>
       </c>
       <c r="I54">
-        <v>1608.211224431113</v>
+        <v>1623.948303576881</v>
       </c>
       <c r="J54">
-        <v>-525.9082736894751</v>
+        <v>-516.8254310521763</v>
       </c>
       <c r="K54">
-        <v>-4487.763419041995</v>
+        <v>-4454.824428689702</v>
       </c>
     </row>
   </sheetData>
